--- a/data/pca/factorExposure/factorExposure_2015-04-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-04-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,18 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,27 +723,51 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.02091802330813507</v>
+        <v>-0.01216032503545383</v>
       </c>
       <c r="C2">
-        <v>0.02743245601947348</v>
+        <v>0.05411688951527418</v>
       </c>
       <c r="D2">
-        <v>0.1285798162871777</v>
+        <v>-0.1284057814574796</v>
       </c>
       <c r="E2">
-        <v>-0.02830916841415316</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.03368717522821574</v>
+      </c>
+      <c r="F2">
+        <v>0.02730253488286355</v>
+      </c>
+      <c r="G2">
+        <v>-0.06122243210752438</v>
+      </c>
+      <c r="H2">
+        <v>0.1208723847605586</v>
+      </c>
+      <c r="I2">
+        <v>-0.07954833232282699</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -745,27 +781,51 @@
       <c r="E3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.04388006711875277</v>
+        <v>-0.01686387903213759</v>
       </c>
       <c r="C4">
-        <v>0.07084059768624039</v>
+        <v>0.1066856897597251</v>
       </c>
       <c r="D4">
-        <v>0.09152102625959738</v>
+        <v>-0.1191817352547283</v>
       </c>
       <c r="E4">
-        <v>-0.1026059799802833</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.02160807622906482</v>
+      </c>
+      <c r="F4">
+        <v>0.1004303291553642</v>
+      </c>
+      <c r="G4">
+        <v>0.01234471966473311</v>
+      </c>
+      <c r="H4">
+        <v>0.05702190226874716</v>
+      </c>
+      <c r="I4">
+        <v>0.08561125503571122</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,197 +839,341 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0.02789386230965191</v>
+        <v>-0.03209153382462936</v>
       </c>
       <c r="C6">
-        <v>0.01583350887344703</v>
+        <v>0.04035426033617807</v>
       </c>
       <c r="D6">
-        <v>0.1155980687225745</v>
+        <v>-0.1112626588841241</v>
       </c>
       <c r="E6">
-        <v>-0.0667288969018562</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.06882863967962422</v>
+      </c>
+      <c r="F6">
+        <v>0.04541685029681281</v>
+      </c>
+      <c r="G6">
+        <v>0.03297126108043012</v>
+      </c>
+      <c r="H6">
+        <v>0.02530373394958242</v>
+      </c>
+      <c r="I6">
+        <v>0.003261981380119738</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.001974847067207819</v>
+        <v>-0.00666178700015772</v>
       </c>
       <c r="C7">
-        <v>0.02522199274468569</v>
+        <v>0.0401898155729176</v>
       </c>
       <c r="D7">
-        <v>0.1050211360688734</v>
+        <v>-0.09127223793549642</v>
       </c>
       <c r="E7">
-        <v>-0.03181192510401296</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>-0.05409787346827058</v>
+      </c>
+      <c r="F7">
+        <v>0.007769609740462156</v>
+      </c>
+      <c r="G7">
+        <v>0.06525159444596404</v>
+      </c>
+      <c r="H7">
+        <v>0.0611526554978815</v>
+      </c>
+      <c r="I7">
+        <v>0.05093197742906517</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.002205876125281674</v>
+        <v>0.006631538286977563</v>
       </c>
       <c r="C8">
-        <v>0.02820163990687681</v>
+        <v>0.03912642520506185</v>
       </c>
       <c r="D8">
-        <v>0.07766796279441672</v>
+        <v>-0.06677681155192865</v>
       </c>
       <c r="E8">
-        <v>-0.04412462453160391</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.04007179443108765</v>
+      </c>
+      <c r="F8">
+        <v>0.04310054114113447</v>
+      </c>
+      <c r="G8">
+        <v>-0.04351140100110143</v>
+      </c>
+      <c r="H8">
+        <v>0.04482230068553908</v>
+      </c>
+      <c r="I8">
+        <v>0.02604445442543753</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.0334648970277828</v>
+        <v>-0.0133821131806452</v>
       </c>
       <c r="C9">
-        <v>0.06209472169504689</v>
+        <v>0.08890050868501115</v>
       </c>
       <c r="D9">
-        <v>0.09701634376224996</v>
+        <v>-0.1043711221429844</v>
       </c>
       <c r="E9">
-        <v>-0.08199958972939324</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01906665469329582</v>
+      </c>
+      <c r="F9">
+        <v>0.06713482913329538</v>
+      </c>
+      <c r="G9">
+        <v>0.03972694779613332</v>
+      </c>
+      <c r="H9">
+        <v>0.05230911201823387</v>
+      </c>
+      <c r="I9">
+        <v>0.04567721339640666</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.1819308932570317</v>
+        <v>-0.2412467636166552</v>
       </c>
       <c r="C10">
-        <v>-0.1654180420935696</v>
+        <v>-0.08797949489727555</v>
       </c>
       <c r="D10">
-        <v>-0.02374364290343073</v>
+        <v>0.01247470189427454</v>
       </c>
       <c r="E10">
-        <v>-0.03829419871590235</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>0.01682864921885974</v>
+      </c>
+      <c r="F10">
+        <v>0.03885499782377336</v>
+      </c>
+      <c r="G10">
+        <v>-0.01874811092598477</v>
+      </c>
+      <c r="H10">
+        <v>-0.01209657449037671</v>
+      </c>
+      <c r="I10">
+        <v>-0.01099879189668849</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.01694826221354365</v>
+        <v>-0.01036498760832171</v>
       </c>
       <c r="C11">
-        <v>0.04208989413797095</v>
+        <v>0.05882387795893049</v>
       </c>
       <c r="D11">
-        <v>0.04332415701504413</v>
+        <v>-0.03936789936230335</v>
       </c>
       <c r="E11">
-        <v>0.008148129735730175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.02471780781806829</v>
+      </c>
+      <c r="F11">
+        <v>-0.01228775212458694</v>
+      </c>
+      <c r="G11">
+        <v>0.03570994491340556</v>
+      </c>
+      <c r="H11">
+        <v>0.03022545988511225</v>
+      </c>
+      <c r="I11">
+        <v>0.03695706250560848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.01598510265166329</v>
+        <v>-0.01017684057267088</v>
       </c>
       <c r="C12">
-        <v>0.04314453729212149</v>
+        <v>0.05144925224958092</v>
       </c>
       <c r="D12">
-        <v>0.05550428883850395</v>
+        <v>-0.04594413328446694</v>
       </c>
       <c r="E12">
-        <v>-0.002908848560098821</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>-0.01903235029043222</v>
+      </c>
+      <c r="F12">
+        <v>-0.01490752437782707</v>
+      </c>
+      <c r="G12">
+        <v>0.05873679507587582</v>
+      </c>
+      <c r="H12">
+        <v>0.04017743403635129</v>
+      </c>
+      <c r="I12">
+        <v>0.01030060660311994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.006092731497127245</v>
+        <v>-0.002174004869784947</v>
       </c>
       <c r="C13">
-        <v>0.02603531040205695</v>
+        <v>0.058015808614706</v>
       </c>
       <c r="D13">
-        <v>0.1191821921823585</v>
+        <v>-0.1565312281672915</v>
       </c>
       <c r="E13">
-        <v>-0.06058883094323662</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.04074750672901916</v>
+      </c>
+      <c r="F13">
+        <v>0.03480902919312743</v>
+      </c>
+      <c r="G13">
+        <v>0.03255839416956735</v>
+      </c>
+      <c r="H13">
+        <v>0.09627588674902253</v>
+      </c>
+      <c r="I13">
+        <v>-0.05711608998209513</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.003793214025305068</v>
+        <v>-0.002899998298433942</v>
       </c>
       <c r="C14">
-        <v>0.01985855248626773</v>
+        <v>0.03456013061852529</v>
       </c>
       <c r="D14">
-        <v>0.07968027952167646</v>
+        <v>-0.0897791184595458</v>
       </c>
       <c r="E14">
-        <v>-0.02650763249940238</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>-0.05923259177098265</v>
+      </c>
+      <c r="F14">
+        <v>0.02533522725037578</v>
+      </c>
+      <c r="G14">
+        <v>0.07085584425290013</v>
+      </c>
+      <c r="H14">
+        <v>0.1328103331317334</v>
+      </c>
+      <c r="I14">
+        <v>0.01274162564334016</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B15">
-        <v>-0.002940568824406726</v>
+        <v>0.00499215285031663</v>
       </c>
       <c r="C15">
-        <v>0.01058550116261852</v>
+        <v>0.02829817442568794</v>
       </c>
       <c r="D15">
-        <v>0.03563781018767273</v>
+        <v>-0.05740407840485816</v>
       </c>
       <c r="E15">
-        <v>-0.001949591964914263</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
+        <v>-0.0217188762004061</v>
+      </c>
+      <c r="F15">
+        <v>0.006364442426368664</v>
+      </c>
+      <c r="G15">
+        <v>0.01182924951189033</v>
+      </c>
+      <c r="H15">
+        <v>0.05644701771966013</v>
+      </c>
+      <c r="I15">
+        <v>0.02547923530038017</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.0160638475474966</v>
+        <v>-0.009434596562753637</v>
       </c>
       <c r="C16">
-        <v>0.03848831467314964</v>
+        <v>0.05096985795429602</v>
       </c>
       <c r="D16">
-        <v>0.04864808604855227</v>
+        <v>-0.04064686017661038</v>
       </c>
       <c r="E16">
-        <v>-0.00332690997411532</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.02591818027952692</v>
+      </c>
+      <c r="F16">
+        <v>-0.006450256226231982</v>
+      </c>
+      <c r="G16">
+        <v>0.04312349703095317</v>
+      </c>
+      <c r="H16">
+        <v>0.02454580855997143</v>
+      </c>
+      <c r="I16">
+        <v>0.02436356053268638</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1187,22 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,146 +1216,254 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.0002383640964151785</v>
+        <v>0.002540242998470072</v>
       </c>
       <c r="C19">
-        <v>0.02140524471351405</v>
+        <v>0.01723506420956924</v>
       </c>
       <c r="D19">
-        <v>0.06663429167107872</v>
+        <v>-0.04791998256118876</v>
       </c>
       <c r="E19">
-        <v>-0.03186155616490464</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>0.006902359443350116</v>
+      </c>
+      <c r="F19">
+        <v>0.01153054595025668</v>
+      </c>
+      <c r="G19">
+        <v>0.009489957499187565</v>
+      </c>
+      <c r="H19">
+        <v>0.0480395852561378</v>
+      </c>
+      <c r="I19">
+        <v>-0.007216944619432867</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.002595566038313861</v>
+        <v>-0.004803985308718593</v>
       </c>
       <c r="C20">
-        <v>0.025610772447341</v>
+        <v>0.04274002295101668</v>
       </c>
       <c r="D20">
-        <v>0.06782442284624504</v>
+        <v>-0.0814881721529085</v>
       </c>
       <c r="E20">
-        <v>-0.04559997836140701</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02904570329089873</v>
+      </c>
+      <c r="F20">
+        <v>0.02625070574139985</v>
+      </c>
+      <c r="G20">
+        <v>0.0441277100024852</v>
+      </c>
+      <c r="H20">
+        <v>0.03964873818268298</v>
+      </c>
+      <c r="I20">
+        <v>0.04971219285129232</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.007190945743323708</v>
+        <v>-0.003935886689563036</v>
       </c>
       <c r="C21">
-        <v>0.0312057722726967</v>
+        <v>0.04994443269429544</v>
       </c>
       <c r="D21">
-        <v>0.1213039768674533</v>
+        <v>-0.1176749425655168</v>
       </c>
       <c r="E21">
-        <v>-0.09718294676808852</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.03692809938363845</v>
+      </c>
+      <c r="F21">
+        <v>0.08656460496760417</v>
+      </c>
+      <c r="G21">
+        <v>0.07296105269065802</v>
+      </c>
+      <c r="H21">
+        <v>0.1854146585297478</v>
+      </c>
+      <c r="I21">
+        <v>-0.04602923709253823</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B22">
-        <v>0.002618037734406709</v>
+        <v>0.01121382481155597</v>
       </c>
       <c r="C22">
-        <v>0.07054516468145842</v>
+        <v>0.0935593443031817</v>
       </c>
       <c r="D22">
-        <v>0.2968115463997544</v>
+        <v>-0.27071364239359</v>
       </c>
       <c r="E22">
-        <v>-0.08728936488021717</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
+        <v>-0.08315719520272852</v>
+      </c>
+      <c r="F22">
+        <v>0.02727321691988071</v>
+      </c>
+      <c r="G22">
+        <v>-0.5269932428739187</v>
+      </c>
+      <c r="H22">
+        <v>-0.1681174002404769</v>
+      </c>
+      <c r="I22">
+        <v>-0.04087566712004288</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B23">
-        <v>0.003036002859873133</v>
+        <v>0.008021355010160221</v>
       </c>
       <c r="C23">
-        <v>0.07083303752986679</v>
+        <v>0.09534648650333144</v>
       </c>
       <c r="D23">
-        <v>0.29578064200399</v>
+        <v>-0.2732173721413452</v>
       </c>
       <c r="E23">
-        <v>-0.08744496336837813</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
+        <v>-0.07812584594089057</v>
+      </c>
+      <c r="F23">
+        <v>0.03030821499091045</v>
+      </c>
+      <c r="G23">
+        <v>-0.5102946252091973</v>
+      </c>
+      <c r="H23">
+        <v>-0.1594086106617446</v>
+      </c>
+      <c r="I23">
+        <v>-0.04081739423507492</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.0222406984242552</v>
+        <v>-0.01037997256522898</v>
       </c>
       <c r="C24">
-        <v>0.05844198145682052</v>
+        <v>0.06788998924976747</v>
       </c>
       <c r="D24">
-        <v>0.05571797577952946</v>
+        <v>-0.04316991604880951</v>
       </c>
       <c r="E24">
-        <v>-0.003259302862469249</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>-0.03195535843925647</v>
+      </c>
+      <c r="F24">
+        <v>-0.005548907380298312</v>
+      </c>
+      <c r="G24">
+        <v>0.04527579100248896</v>
+      </c>
+      <c r="H24">
+        <v>0.05280882816171206</v>
+      </c>
+      <c r="I24">
+        <v>0.03376052065573024</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.0227247247048152</v>
+        <v>-0.01415076691913764</v>
       </c>
       <c r="C25">
-        <v>0.05043338076881112</v>
+        <v>0.06263117567838365</v>
       </c>
       <c r="D25">
-        <v>0.05435817288904665</v>
+        <v>-0.04776422239683206</v>
       </c>
       <c r="E25">
-        <v>-0.0105393070120013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>-0.01832498689266957</v>
+      </c>
+      <c r="F25">
+        <v>-0.004355550400983712</v>
+      </c>
+      <c r="G25">
+        <v>0.03527164668349238</v>
+      </c>
+      <c r="H25">
+        <v>0.02302872003706983</v>
+      </c>
+      <c r="I25">
+        <v>0.02275136093210811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.01040095147036128</v>
+        <v>-0.01690106934890714</v>
       </c>
       <c r="C26">
-        <v>0.01618547965464361</v>
+        <v>0.02948150030638234</v>
       </c>
       <c r="D26">
-        <v>0.06231641236362336</v>
+        <v>-0.05750794189414327</v>
       </c>
       <c r="E26">
-        <v>-0.03345932548638703</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.04128145288172052</v>
+      </c>
+      <c r="F26">
+        <v>0.04407563730561932</v>
+      </c>
+      <c r="G26">
+        <v>0.04442382998149869</v>
+      </c>
+      <c r="H26">
+        <v>0.09640758125128286</v>
+      </c>
+      <c r="I26">
+        <v>0.02111780151659464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,163 +1477,283 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.2663292169114592</v>
+        <v>-0.3172407003488332</v>
       </c>
       <c r="C28">
-        <v>-0.1853708171290672</v>
+        <v>-0.08817118794879644</v>
       </c>
       <c r="D28">
-        <v>-0.007444555109237915</v>
+        <v>0.0274907145158238</v>
       </c>
       <c r="E28">
-        <v>-0.03835866597395086</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.05132185728399556</v>
+      </c>
+      <c r="F28">
+        <v>0.04284930979497387</v>
+      </c>
+      <c r="G28">
+        <v>-0.05722788887315811</v>
+      </c>
+      <c r="H28">
+        <v>0.03029591478868171</v>
+      </c>
+      <c r="I28">
+        <v>0.004010615815548988</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.001592215283711981</v>
+        <v>-0.001216747774396435</v>
       </c>
       <c r="C29">
-        <v>0.02363323785106487</v>
+        <v>0.04030509465817812</v>
       </c>
       <c r="D29">
-        <v>0.07509120915467181</v>
+        <v>-0.09107093615019593</v>
       </c>
       <c r="E29">
-        <v>-0.03558358454205238</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>-0.06672239939432059</v>
+      </c>
+      <c r="F29">
+        <v>0.02767364023493547</v>
+      </c>
+      <c r="G29">
+        <v>0.09538902251159914</v>
+      </c>
+      <c r="H29">
+        <v>0.1471011305381802</v>
+      </c>
+      <c r="I29">
+        <v>0.01447625974602103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.02495566905279923</v>
+        <v>-0.01425450449925439</v>
       </c>
       <c r="C30">
-        <v>0.06927597189756624</v>
+        <v>0.09529480847257334</v>
       </c>
       <c r="D30">
-        <v>0.1431090401267001</v>
+        <v>-0.1268909067025422</v>
       </c>
       <c r="E30">
-        <v>-0.04976814667334385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.06239575174817638</v>
+      </c>
+      <c r="F30">
+        <v>0.02138533542011632</v>
+      </c>
+      <c r="G30">
+        <v>0.009545388459633078</v>
+      </c>
+      <c r="H30">
+        <v>0.04105724116479714</v>
+      </c>
+      <c r="I30">
+        <v>0.05812485583791873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.03548397785161417</v>
+        <v>-0.008293429800750837</v>
       </c>
       <c r="C31">
-        <v>0.08478631321951587</v>
+        <v>0.09524185071082335</v>
       </c>
       <c r="D31">
-        <v>0.05617116028435383</v>
+        <v>-0.03660107263136711</v>
       </c>
       <c r="E31">
-        <v>-0.02224316983495302</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>-0.02184049391494711</v>
+      </c>
+      <c r="F31">
+        <v>0.01545108256082669</v>
+      </c>
+      <c r="G31">
+        <v>0.01972308531156422</v>
+      </c>
+      <c r="H31">
+        <v>0.03982009049025455</v>
+      </c>
+      <c r="I31">
+        <v>0.01682315321484605</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.01706588014882437</v>
+        <v>-0.01211247310423486</v>
       </c>
       <c r="C32">
-        <v>0.03900174988814627</v>
+        <v>0.05341685289079143</v>
       </c>
       <c r="D32">
-        <v>0.06645725478519136</v>
+        <v>-0.07972152558029826</v>
       </c>
       <c r="E32">
-        <v>-0.05068969428618215</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>0.002923904985920133</v>
+      </c>
+      <c r="F32">
+        <v>0.04377054429505461</v>
+      </c>
+      <c r="G32">
+        <v>0.02552499305705717</v>
+      </c>
+      <c r="H32">
+        <v>0.06503711754264412</v>
+      </c>
+      <c r="I32">
+        <v>-0.002203057599799572</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.006237958088125803</v>
+        <v>-0.00625535702183262</v>
       </c>
       <c r="C33">
-        <v>0.0422233712816739</v>
+        <v>0.06187700803595508</v>
       </c>
       <c r="D33">
-        <v>0.1113621979766244</v>
+        <v>-0.1138473883760656</v>
       </c>
       <c r="E33">
-        <v>-0.05356015070439823</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.03526928933328607</v>
+      </c>
+      <c r="F33">
+        <v>0.0293610529557277</v>
+      </c>
+      <c r="G33">
+        <v>0.02972707239168425</v>
+      </c>
+      <c r="H33">
+        <v>0.05249836331627514</v>
+      </c>
+      <c r="I33">
+        <v>0.01794056302430953</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.02002178317243829</v>
+        <v>-0.008391977858099937</v>
       </c>
       <c r="C34">
-        <v>0.05972884449246815</v>
+        <v>0.06243227400002793</v>
       </c>
       <c r="D34">
-        <v>0.0551775738610222</v>
+        <v>-0.0251307978986551</v>
       </c>
       <c r="E34">
-        <v>0.03540202872117931</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>-0.0298937829762781</v>
+      </c>
+      <c r="F34">
+        <v>-0.03983916969862076</v>
+      </c>
+      <c r="G34">
+        <v>0.03464087470676568</v>
+      </c>
+      <c r="H34">
+        <v>0.03080168611142922</v>
+      </c>
+      <c r="I34">
+        <v>0.01269102930927143</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.003188488096696408</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.01264133686866248</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>-0.03244563184402836</v>
       </c>
       <c r="E35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
+        <v>-0.008142902758872517</v>
+      </c>
+      <c r="F35">
+        <v>0.01605811530023498</v>
+      </c>
+      <c r="G35">
+        <v>0.03927499639025903</v>
+      </c>
+      <c r="H35">
+        <v>0.05375462649661917</v>
+      </c>
+      <c r="I35">
+        <v>0.01673230475302202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.006651161770521902</v>
+        <v>-0.01127417203827356</v>
       </c>
       <c r="C36">
-        <v>0.008814159629343888</v>
+        <v>0.02395240934057409</v>
       </c>
       <c r="D36">
-        <v>0.06540078043333734</v>
+        <v>-0.06828007117984046</v>
       </c>
       <c r="E36">
-        <v>-0.05521669127831019</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.03376837793828327</v>
+      </c>
+      <c r="F36">
+        <v>0.04840251947982135</v>
+      </c>
+      <c r="G36">
+        <v>0.03119615434928652</v>
+      </c>
+      <c r="H36">
+        <v>0.06386367555696627</v>
+      </c>
+      <c r="I36">
+        <v>0.01747249463870208</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,78 +1767,138 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.007323112863372934</v>
+        <v>-0.01074355684053759</v>
       </c>
       <c r="C38">
-        <v>0.008419170646637306</v>
+        <v>0.02726632059184653</v>
       </c>
       <c r="D38">
-        <v>0.0719815401597266</v>
+        <v>-0.08069498239093746</v>
       </c>
       <c r="E38">
-        <v>-0.009256137171456572</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.01188760500106208</v>
+      </c>
+      <c r="F38">
+        <v>0.0008323560999171477</v>
+      </c>
+      <c r="G38">
+        <v>0.002122365020675254</v>
+      </c>
+      <c r="H38">
+        <v>0.0704223097728406</v>
+      </c>
+      <c r="I38">
+        <v>0.05189734967835013</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.01489204045955488</v>
+        <v>-0.004750129577802209</v>
       </c>
       <c r="C39">
-        <v>0.06043877162530877</v>
+        <v>0.08026116461460482</v>
       </c>
       <c r="D39">
-        <v>0.1002030012024085</v>
+        <v>-0.08460715635302415</v>
       </c>
       <c r="E39">
-        <v>-0.010231215412768</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.05737121599174979</v>
+      </c>
+      <c r="F39">
+        <v>-0.006803990096934014</v>
+      </c>
+      <c r="G39">
+        <v>0.06885376977485921</v>
+      </c>
+      <c r="H39">
+        <v>0.0749934895876094</v>
+      </c>
+      <c r="I39">
+        <v>0.03956255705688514</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.0179858180133939</v>
+        <v>-0.01423048454198635</v>
       </c>
       <c r="C40">
-        <v>0.02273895065529873</v>
+        <v>0.04348724417595624</v>
       </c>
       <c r="D40">
-        <v>0.1052616636053179</v>
+        <v>-0.09165058372444944</v>
       </c>
       <c r="E40">
-        <v>-0.001879560240100741</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.05561833523288882</v>
+      </c>
+      <c r="F40">
+        <v>-0.0296374167605067</v>
+      </c>
+      <c r="G40">
+        <v>-0.01198129212258638</v>
+      </c>
+      <c r="H40">
+        <v>0.09973768699595942</v>
+      </c>
+      <c r="I40">
+        <v>-0.01928224569491192</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.009351877039738459</v>
+        <v>-0.01567227479924701</v>
       </c>
       <c r="C41">
-        <v>0.004916385330231139</v>
+        <v>0.02075311599618709</v>
       </c>
       <c r="D41">
-        <v>0.03154653111229806</v>
+        <v>-0.04199299212821424</v>
       </c>
       <c r="E41">
-        <v>-0.02687825017041941</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.003728793685648888</v>
+      </c>
+      <c r="F41">
+        <v>0.02342652872842147</v>
+      </c>
+      <c r="G41">
+        <v>0.01559037388669642</v>
+      </c>
+      <c r="H41">
+        <v>0.04156678256218569</v>
+      </c>
+      <c r="I41">
+        <v>0.01596555767163682</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1408,44 +1912,80 @@
       <c r="E42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.000631213185448304</v>
+        <v>-0.00804447558445741</v>
       </c>
       <c r="C43">
-        <v>0.004489505624636307</v>
+        <v>0.01722694973453405</v>
       </c>
       <c r="D43">
-        <v>0.04838034762541505</v>
+        <v>-0.05081967371735067</v>
       </c>
       <c r="E43">
-        <v>-0.02440501813684359</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.01291883569477704</v>
+      </c>
+      <c r="F43">
+        <v>0.02228653309059415</v>
+      </c>
+      <c r="G43">
+        <v>0.02227895453170086</v>
+      </c>
+      <c r="H43">
+        <v>0.05254316610689971</v>
+      </c>
+      <c r="I43">
+        <v>0.03542851639239104</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.02098341118068435</v>
+        <v>-0.01204287855625791</v>
       </c>
       <c r="C44">
-        <v>0.02386952367074368</v>
+        <v>0.04875515801090567</v>
       </c>
       <c r="D44">
-        <v>0.07947800702355</v>
+        <v>-0.09564877447373206</v>
       </c>
       <c r="E44">
-        <v>-0.05807276746657906</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.04321522434977759</v>
+      </c>
+      <c r="F44">
+        <v>0.03585663561047244</v>
+      </c>
+      <c r="G44">
+        <v>0.003715484896069378</v>
+      </c>
+      <c r="H44">
+        <v>0.06938691727063388</v>
+      </c>
+      <c r="I44">
+        <v>0.03469916734253293</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1999,109 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.006309043826505564</v>
+        <v>0.0007791815274444913</v>
       </c>
       <c r="C46">
-        <v>0.03149496622434119</v>
+        <v>0.04434152802333024</v>
       </c>
       <c r="D46">
-        <v>0.07022232537680982</v>
+        <v>-0.06661238133175865</v>
       </c>
       <c r="E46">
-        <v>-0.02743362114727049</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>-0.0479141080649842</v>
+      </c>
+      <c r="F46">
+        <v>0.02956949941242468</v>
+      </c>
+      <c r="G46">
+        <v>0.05514777072936527</v>
+      </c>
+      <c r="H46">
+        <v>0.1200611564412715</v>
+      </c>
+      <c r="I46">
+        <v>0.03847868771619248</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.07564255779286924</v>
+        <v>-0.03040923270578487</v>
       </c>
       <c r="C47">
-        <v>0.1091597669110858</v>
+        <v>0.1282091927991001</v>
       </c>
       <c r="D47">
-        <v>0.04274498399731146</v>
+        <v>-0.01976464174657378</v>
       </c>
       <c r="E47">
-        <v>-0.01570120622134676</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.009014713369395246</v>
+      </c>
+      <c r="F47">
+        <v>-0.004944316414923411</v>
+      </c>
+      <c r="G47">
+        <v>0.05617146792494251</v>
+      </c>
+      <c r="H47">
+        <v>0.02422055513348891</v>
+      </c>
+      <c r="I47">
+        <v>0.02907402339312988</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.009690750359755555</v>
+        <v>-0.01468066810228412</v>
       </c>
       <c r="C48">
-        <v>0.01919627020950364</v>
+        <v>0.03538892339259125</v>
       </c>
       <c r="D48">
-        <v>0.05915742966355934</v>
+        <v>-0.06946828454388551</v>
       </c>
       <c r="E48">
-        <v>-0.05181638986495925</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>-0.02347819157866881</v>
+      </c>
+      <c r="F48">
+        <v>0.05421580411019164</v>
+      </c>
+      <c r="G48">
+        <v>0.04653395614874615</v>
+      </c>
+      <c r="H48">
+        <v>0.1026201032234246</v>
+      </c>
+      <c r="I48">
+        <v>0.03952532718108079</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +2115,80 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.03218569425267955</v>
+        <v>-0.01263156999827014</v>
       </c>
       <c r="C50">
-        <v>0.05902539341627801</v>
+        <v>0.07728683177235587</v>
       </c>
       <c r="D50">
-        <v>0.05386413698009083</v>
+        <v>-0.04636513874655099</v>
       </c>
       <c r="E50">
-        <v>-0.01137206668493601</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>-0.01671229875561531</v>
+      </c>
+      <c r="F50">
+        <v>0.00848212720346809</v>
+      </c>
+      <c r="G50">
+        <v>0.006038487128689961</v>
+      </c>
+      <c r="H50">
+        <v>0.02934762703200047</v>
+      </c>
+      <c r="I50">
+        <v>0.02630239993683279</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.001419666681749001</v>
+        <v>0.0008552916954420127</v>
       </c>
       <c r="C51">
-        <v>0.006308152877569371</v>
+        <v>0.01804301506803613</v>
       </c>
       <c r="D51">
-        <v>0.04902036945794626</v>
+        <v>-0.04908709071876374</v>
       </c>
       <c r="E51">
-        <v>-0.02333429273643865</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.03951985840672714</v>
+      </c>
+      <c r="F51">
+        <v>0.03566684203708157</v>
+      </c>
+      <c r="G51">
+        <v>0.009505469889471844</v>
+      </c>
+      <c r="H51">
+        <v>0.0719662522622896</v>
+      </c>
+      <c r="I51">
+        <v>0.0003653398512080274</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,78 +2202,138 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.10629445997933</v>
+        <v>-0.05377158218153798</v>
       </c>
       <c r="C53">
-        <v>0.1275908762751029</v>
+        <v>0.1591882158638399</v>
       </c>
       <c r="D53">
-        <v>-0.01358807190820172</v>
+        <v>0.02359463919359201</v>
       </c>
       <c r="E53">
-        <v>-0.03705951083709653</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.02897411095561445</v>
+      </c>
+      <c r="F53">
+        <v>0.04332136346170356</v>
+      </c>
+      <c r="G53">
+        <v>0.00874408077518656</v>
+      </c>
+      <c r="H53">
+        <v>0.01071087428918959</v>
+      </c>
+      <c r="I53">
+        <v>0.01355614395332413</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.0109284060022664</v>
+        <v>-0.01123626804371542</v>
       </c>
       <c r="C54">
-        <v>0.02347286525293649</v>
+        <v>0.04079015753767611</v>
       </c>
       <c r="D54">
-        <v>0.08114254476092722</v>
+        <v>-0.07431205330765893</v>
       </c>
       <c r="E54">
-        <v>-0.01330824253243276</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.0233564274130695</v>
+      </c>
+      <c r="F54">
+        <v>0.002756324938712555</v>
+      </c>
+      <c r="G54">
+        <v>0.02327840073439221</v>
+      </c>
+      <c r="H54">
+        <v>0.07681049977048802</v>
+      </c>
+      <c r="I54">
+        <v>0.04618083167849506</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.09188439141307582</v>
+        <v>-0.04101704235898364</v>
       </c>
       <c r="C55">
-        <v>0.1095493554296532</v>
+        <v>0.1315001010051128</v>
       </c>
       <c r="D55">
-        <v>0.002206294008726292</v>
+        <v>0.03894702748845317</v>
       </c>
       <c r="E55">
-        <v>0.002132709808185538</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>-0.005705465473458872</v>
+      </c>
+      <c r="F55">
+        <v>0.003175017943822473</v>
+      </c>
+      <c r="G55">
+        <v>0.001469860224575982</v>
+      </c>
+      <c r="H55">
+        <v>0.004735983930382622</v>
+      </c>
+      <c r="I55">
+        <v>-0.007359314001827753</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1314314532788723</v>
+        <v>-0.05498263715255501</v>
       </c>
       <c r="C56">
-        <v>0.149298797303543</v>
+        <v>0.1906887261409594</v>
       </c>
       <c r="D56">
-        <v>0.002673695499207147</v>
+        <v>0.03987454609330647</v>
       </c>
       <c r="E56">
-        <v>0.01269283411338985</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.02856272434416644</v>
+      </c>
+      <c r="F56">
+        <v>0.005091730339006183</v>
+      </c>
+      <c r="G56">
+        <v>-0.03443594164003646</v>
+      </c>
+      <c r="H56">
+        <v>0.03355924423667523</v>
+      </c>
+      <c r="I56">
+        <v>-0.001474676517278303</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1663,78 +2347,138 @@
       <c r="E57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.007159034659215946</v>
+        <v>-0.003607943718439234</v>
       </c>
       <c r="C58">
-        <v>0.01555452130085763</v>
+        <v>0.06211065127533758</v>
       </c>
       <c r="D58">
-        <v>0.204654082444531</v>
+        <v>-0.2810263796106248</v>
       </c>
       <c r="E58">
-        <v>-0.1371209868669626</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.03874382790946056</v>
+      </c>
+      <c r="F58">
+        <v>0.1309770836063725</v>
+      </c>
+      <c r="G58">
+        <v>-0.1613797453638693</v>
+      </c>
+      <c r="H58">
+        <v>0.006251488409909145</v>
+      </c>
+      <c r="I58">
+        <v>0.03740541772019466</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.186333553495573</v>
+        <v>-0.2546605563480426</v>
       </c>
       <c r="C59">
-        <v>-0.1386644371084058</v>
+        <v>-0.05685487617136721</v>
       </c>
       <c r="D59">
-        <v>0.03424074885420057</v>
+        <v>-0.04934254744783618</v>
       </c>
       <c r="E59">
-        <v>-0.0263503681054833</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>0.02256010000280454</v>
+      </c>
+      <c r="F59">
+        <v>0.02158013049200841</v>
+      </c>
+      <c r="G59">
+        <v>-0.01200355711781736</v>
+      </c>
+      <c r="H59">
+        <v>0.01349049635379416</v>
+      </c>
+      <c r="I59">
+        <v>-0.03323682219538484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1809610363748018</v>
+        <v>-0.1500839870409402</v>
       </c>
       <c r="C60">
-        <v>0.1031812961941684</v>
+        <v>0.1715986463514936</v>
       </c>
       <c r="D60">
-        <v>0.2354646955807574</v>
+        <v>-0.08940944750151142</v>
       </c>
       <c r="E60">
-        <v>0.01981758295902445</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>-0.1524216932983133</v>
+      </c>
+      <c r="F60">
+        <v>-0.1906046776929429</v>
+      </c>
+      <c r="G60">
+        <v>0.1105802868756509</v>
+      </c>
+      <c r="H60">
+        <v>-0.3048535621368963</v>
+      </c>
+      <c r="I60">
+        <v>-0.1481609752640949</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.0243020356983866</v>
+        <v>-0.01157205794380348</v>
       </c>
       <c r="C61">
-        <v>0.05579344207594739</v>
+        <v>0.07694036036838967</v>
       </c>
       <c r="D61">
-        <v>0.07984497397018794</v>
+        <v>-0.0669873860796683</v>
       </c>
       <c r="E61">
-        <v>-0.003311240365389036</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.0407515190227025</v>
+      </c>
+      <c r="F61">
+        <v>-0.01498251889652508</v>
+      </c>
+      <c r="G61">
+        <v>0.06941960525040126</v>
+      </c>
+      <c r="H61">
+        <v>0.05633349914655671</v>
+      </c>
+      <c r="I61">
+        <v>0.0259310806893315</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2492,225 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.01042338746478742</v>
+        <v>-0.01024764076487773</v>
       </c>
       <c r="C63">
-        <v>0.02680086584527778</v>
+        <v>0.04117061045489435</v>
       </c>
       <c r="D63">
-        <v>0.07772417465796676</v>
+        <v>-0.05593975848682401</v>
       </c>
       <c r="E63">
-        <v>-0.03021424299335409</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>-0.05854821868536161</v>
+      </c>
+      <c r="F63">
+        <v>0.02123382348297213</v>
+      </c>
+      <c r="G63">
+        <v>0.03721625976054717</v>
+      </c>
+      <c r="H63">
+        <v>0.06554846960191441</v>
+      </c>
+      <c r="I63">
+        <v>0.03118449864263593</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.05432250334017694</v>
+        <v>-0.01528002142862327</v>
       </c>
       <c r="C64">
-        <v>0.08706193023821721</v>
+        <v>0.1025336740850151</v>
       </c>
       <c r="D64">
-        <v>0.01393929699174029</v>
+        <v>-0.008619414597733428</v>
       </c>
       <c r="E64">
-        <v>-0.02397220012911912</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>-0.0227529437636583</v>
+      </c>
+      <c r="F64">
+        <v>0.0191628793251392</v>
+      </c>
+      <c r="G64">
+        <v>0.04515911780271026</v>
+      </c>
+      <c r="H64">
+        <v>0.02571173734059288</v>
+      </c>
+      <c r="I64">
+        <v>0.04614312287619717</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0.02538093173695428</v>
+        <v>-0.02271761499381639</v>
       </c>
       <c r="C65">
-        <v>0.01816757178031056</v>
+        <v>0.04730588751446994</v>
       </c>
       <c r="D65">
-        <v>0.1031649287793617</v>
+        <v>-0.1089941352422575</v>
       </c>
       <c r="E65">
-        <v>-0.03204092015075596</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.05415645249924061</v>
+      </c>
+      <c r="F65">
+        <v>-0.004933933819968817</v>
+      </c>
+      <c r="G65">
+        <v>0.03551302587805001</v>
+      </c>
+      <c r="H65">
+        <v>-0.0195148749987062</v>
+      </c>
+      <c r="I65">
+        <v>0.0369829312036827</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.02108240734796195</v>
+        <v>-0.002342046648712051</v>
       </c>
       <c r="C66">
-        <v>0.07116481270845253</v>
+        <v>0.1002837925731261</v>
       </c>
       <c r="D66">
-        <v>0.1186911182641509</v>
+        <v>-0.1121822366096097</v>
       </c>
       <c r="E66">
-        <v>-0.01126150472890497</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.0508380129344002</v>
+      </c>
+      <c r="F66">
+        <v>-0.008001249730219887</v>
+      </c>
+      <c r="G66">
+        <v>0.03470610405555281</v>
+      </c>
+      <c r="H66">
+        <v>0.0625939142903679</v>
+      </c>
+      <c r="I66">
+        <v>0.03468093420366529</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.02388903727330239</v>
+        <v>-0.02027281310822336</v>
       </c>
       <c r="C67">
-        <v>0.02111519411816665</v>
+        <v>0.03712366663370487</v>
       </c>
       <c r="D67">
-        <v>0.04059378958371515</v>
+        <v>-0.03898658054790581</v>
       </c>
       <c r="E67">
-        <v>0.02157858931547554</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>-0.01516747771067739</v>
+      </c>
+      <c r="F67">
+        <v>-0.02869658849995598</v>
+      </c>
+      <c r="G67">
+        <v>0.01683391715020246</v>
+      </c>
+      <c r="H67">
+        <v>0.05816176068710838</v>
+      </c>
+      <c r="I67">
+        <v>0.04276164610574178</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.2091600040664449</v>
+        <v>-0.278607208980833</v>
       </c>
       <c r="C68">
-        <v>-0.1496699526544404</v>
+        <v>-0.06246781806788346</v>
       </c>
       <c r="D68">
-        <v>0.02734509250408648</v>
+        <v>-0.02626670055623336</v>
       </c>
       <c r="E68">
-        <v>-0.02289091337820287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>0.00263993839581581</v>
+      </c>
+      <c r="F68">
+        <v>0.02318281580688703</v>
+      </c>
+      <c r="G68">
+        <v>-0.07867538066299316</v>
+      </c>
+      <c r="H68">
+        <v>-0.0120761807197123</v>
+      </c>
+      <c r="I68">
+        <v>-0.01171842145832786</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.05257006258558149</v>
+        <v>-0.01461267697276915</v>
       </c>
       <c r="C69">
-        <v>0.1192677374815435</v>
+        <v>0.1182382571053697</v>
       </c>
       <c r="D69">
-        <v>0.0675164794568817</v>
+        <v>-0.02299388677936569</v>
       </c>
       <c r="E69">
-        <v>-0.01472601227527782</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>-0.01155774068540407</v>
+      </c>
+      <c r="F69">
+        <v>-0.01200367607775719</v>
+      </c>
+      <c r="G69">
+        <v>0.03704559440164416</v>
+      </c>
+      <c r="H69">
+        <v>0.02270344977662277</v>
+      </c>
+      <c r="I69">
+        <v>0.01274446991106632</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,435 +2724,747 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.2170257030802834</v>
+        <v>-0.2769752659622937</v>
       </c>
       <c r="C71">
-        <v>-0.1725838245512026</v>
+        <v>-0.07831360416310718</v>
       </c>
       <c r="D71">
-        <v>0.01631998726985906</v>
+        <v>-0.0148183691130868</v>
       </c>
       <c r="E71">
-        <v>-0.009087344606365823</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0007230817680620852</v>
+      </c>
+      <c r="F71">
+        <v>0.01466434639885431</v>
+      </c>
+      <c r="G71">
+        <v>-0.03124036273738421</v>
+      </c>
+      <c r="H71">
+        <v>0.01257107905772882</v>
+      </c>
+      <c r="I71">
+        <v>0.006109565833455076</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.09965864059897919</v>
+        <v>-0.05829734916578704</v>
       </c>
       <c r="C72">
-        <v>0.0777595061612078</v>
+        <v>0.1276843061524526</v>
       </c>
       <c r="D72">
-        <v>0.123080516756286</v>
+        <v>-0.06103639860964567</v>
       </c>
       <c r="E72">
-        <v>-0.01516957534679393</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>-0.07257395970756396</v>
+      </c>
+      <c r="F72">
+        <v>-0.02010257357358193</v>
+      </c>
+      <c r="G72">
+        <v>0.06197173596668718</v>
+      </c>
+      <c r="H72">
+        <v>0.01434457546882198</v>
+      </c>
+      <c r="I72">
+        <v>0.02178012964445622</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.1690191009593328</v>
+        <v>-0.1423961625852772</v>
       </c>
       <c r="C73">
-        <v>0.07122274428167938</v>
+        <v>0.1515367757654195</v>
       </c>
       <c r="D73">
-        <v>0.2937066611427711</v>
+        <v>-0.096307931942948</v>
       </c>
       <c r="E73">
-        <v>0.05447565759456439</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.2717739396976659</v>
+      </c>
+      <c r="F73">
+        <v>-0.2724695490443108</v>
+      </c>
+      <c r="G73">
+        <v>0.2817904093623843</v>
+      </c>
+      <c r="H73">
+        <v>-0.3518756003592641</v>
+      </c>
+      <c r="I73">
+        <v>-0.08579021697999752</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1049233926185441</v>
+        <v>-0.0512518369180263</v>
       </c>
       <c r="C74">
-        <v>0.1188490184539679</v>
+        <v>0.1447427668458972</v>
       </c>
       <c r="D74">
-        <v>-0.03758129970853826</v>
+        <v>0.04980654493955763</v>
       </c>
       <c r="E74">
-        <v>-0.02466281920219348</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.0138789088399916</v>
+      </c>
+      <c r="F74">
+        <v>0.02895828991342083</v>
+      </c>
+      <c r="G74">
+        <v>-0.00422418106232982</v>
+      </c>
+      <c r="H74">
+        <v>-0.02263273965374251</v>
+      </c>
+      <c r="I74">
+        <v>-0.008934682523502439</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2249620864010194</v>
+        <v>-0.09823632285024368</v>
       </c>
       <c r="C75">
-        <v>0.2043605531239668</v>
+        <v>0.2671347873222467</v>
       </c>
       <c r="D75">
-        <v>-0.08970669308674384</v>
+        <v>0.1326071400932299</v>
       </c>
       <c r="E75">
-        <v>0.08785665867532194</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.09531013830422985</v>
+      </c>
+      <c r="F75">
+        <v>-0.04595035531960585</v>
+      </c>
+      <c r="G75">
+        <v>-0.08889245450398608</v>
+      </c>
+      <c r="H75">
+        <v>0.05938820734305467</v>
+      </c>
+      <c r="I75">
+        <v>0.06219951070695009</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.1331026741766938</v>
+        <v>-0.05592940530774229</v>
       </c>
       <c r="C76">
-        <v>0.1403652068321061</v>
+        <v>0.1790829398960056</v>
       </c>
       <c r="D76">
-        <v>0.0001063413418489773</v>
+        <v>0.05075914596901943</v>
       </c>
       <c r="E76">
-        <v>0.01539461850830508</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.02109823220057858</v>
+      </c>
+      <c r="F76">
+        <v>-0.00264088039579324</v>
+      </c>
+      <c r="G76">
+        <v>-0.02283663903324491</v>
+      </c>
+      <c r="H76">
+        <v>0.0466542761699724</v>
+      </c>
+      <c r="I76">
+        <v>0.01861278185017525</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.01730382776916999</v>
+        <v>-0.001622688660734006</v>
       </c>
       <c r="C77">
-        <v>0.07069954400967626</v>
+        <v>0.1114542054075357</v>
       </c>
       <c r="D77">
-        <v>-0.03106302707698356</v>
+        <v>-0.3656397606903461</v>
       </c>
       <c r="E77">
-        <v>0.02440295422624072</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>0.835631926259766</v>
+      </c>
+      <c r="F77">
+        <v>-0.1901682129525638</v>
+      </c>
+      <c r="G77">
+        <v>0.1054243516419477</v>
+      </c>
+      <c r="H77">
+        <v>-0.2046704080434169</v>
+      </c>
+      <c r="I77">
+        <v>0.0005711282241884639</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.02944107105549783</v>
+        <v>-0.0174178801726935</v>
       </c>
       <c r="C78">
-        <v>0.07428974258178417</v>
+        <v>0.093158939783897</v>
       </c>
       <c r="D78">
-        <v>0.1367995302083604</v>
+        <v>-0.1030783766673755</v>
       </c>
       <c r="E78">
-        <v>-0.06838163971807666</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.06367351242066138</v>
+      </c>
+      <c r="F78">
+        <v>0.04992234898124807</v>
+      </c>
+      <c r="G78">
+        <v>-0.01136720500514508</v>
+      </c>
+      <c r="H78">
+        <v>0.06907961758008846</v>
+      </c>
+      <c r="I78">
+        <v>-0.04157390937395627</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B79">
-        <v>0.1015192250202864</v>
+        <v>-0.03795901170089223</v>
       </c>
       <c r="C79">
-        <v>0.1915233116378055</v>
+        <v>0.201906069454473</v>
       </c>
       <c r="D79">
-        <v>-0.3509123106116874</v>
+        <v>0.1151822250588231</v>
       </c>
       <c r="E79">
-        <v>-0.8402546589812931</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5">
+        <v>0.07882599477045242</v>
+      </c>
+      <c r="F79">
+        <v>0.8079863865292062</v>
+      </c>
+      <c r="G79">
+        <v>0.1877005889921799</v>
+      </c>
+      <c r="H79">
+        <v>-0.3870176083685921</v>
+      </c>
+      <c r="I79">
+        <v>-0.03430350144659757</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.00274987986016209</v>
+        <v>-0.005098422936901777</v>
       </c>
       <c r="C80">
-        <v>0.04505862435019853</v>
+        <v>0.04473463296366367</v>
       </c>
       <c r="D80">
-        <v>0.05251065673795563</v>
+        <v>-0.03805924407667506</v>
       </c>
       <c r="E80">
-        <v>-0.009823710722781515</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>-0.04980536757061799</v>
+      </c>
+      <c r="F80">
+        <v>-0.001550728011403124</v>
+      </c>
+      <c r="G80">
+        <v>0.02081452349590746</v>
+      </c>
+      <c r="H80">
+        <v>0.03258217295470123</v>
+      </c>
+      <c r="I80">
+        <v>-0.08568535991767565</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.113188285250333</v>
+        <v>-0.03990707238072103</v>
       </c>
       <c r="C81">
-        <v>0.1380048752438363</v>
+        <v>0.1645400331007053</v>
       </c>
       <c r="D81">
-        <v>-0.08550819145039371</v>
+        <v>0.08192287586061535</v>
       </c>
       <c r="E81">
-        <v>-0.005088045835413391</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.04933082989283136</v>
+      </c>
+      <c r="F81">
+        <v>0.05366582287975334</v>
+      </c>
+      <c r="G81">
+        <v>-0.02614259182175348</v>
+      </c>
+      <c r="H81">
+        <v>0.08756765012535594</v>
+      </c>
+      <c r="I81">
+        <v>-0.00137271013701194</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B82">
-        <v>0.2386857875499672</v>
+        <v>-0.08451963124024897</v>
       </c>
       <c r="C82">
-        <v>0.2976804116703357</v>
+        <v>0.3108554199587086</v>
       </c>
       <c r="D82">
-        <v>-0.161016901368055</v>
+        <v>0.240082611882364</v>
       </c>
       <c r="E82">
-        <v>0.230459120959234</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.07151468318710293</v>
+      </c>
+      <c r="F82">
+        <v>-0.1319339399113371</v>
+      </c>
+      <c r="G82">
+        <v>-0.04716423315951214</v>
+      </c>
+      <c r="H82">
+        <v>0.1426824494360274</v>
+      </c>
+      <c r="I82">
+        <v>0.003446179717976195</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.01075476546421167</v>
+        <v>0.01222214614642557</v>
       </c>
       <c r="C83">
-        <v>0.05329329962143996</v>
+        <v>0.02174728941682538</v>
       </c>
       <c r="D83">
-        <v>-0.003441785638450609</v>
+        <v>-0.02495539371426199</v>
       </c>
       <c r="E83">
-        <v>-0.02525077404907395</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>0.08859643724660168</v>
+      </c>
+      <c r="F83">
+        <v>0.06185685036416318</v>
+      </c>
+      <c r="G83">
+        <v>0.02949071912399298</v>
+      </c>
+      <c r="H83">
+        <v>0.2357487338738715</v>
+      </c>
+      <c r="I83">
+        <v>-0.9038158543154847</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B84">
-        <v>-1.992867295383024e-05</v>
+        <v>0.004748252857553473</v>
       </c>
       <c r="C84">
-        <v>-0.001396797361931693</v>
+        <v>0.01726187397670427</v>
       </c>
       <c r="D84">
-        <v>-0.0004588742999523335</v>
+        <v>-0.04087185325703763</v>
       </c>
       <c r="E84">
-        <v>0.002174970666341523</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5">
+        <v>-0.003205763671917218</v>
+      </c>
+      <c r="F84">
+        <v>0.02891373358848335</v>
+      </c>
+      <c r="G84">
+        <v>-0.03148896999559758</v>
+      </c>
+      <c r="H84">
+        <v>0.05531308926250147</v>
+      </c>
+      <c r="I84">
+        <v>0.06142963513475193</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.1363896954197787</v>
+        <v>-0.05258069790990696</v>
       </c>
       <c r="C85">
-        <v>0.143095967816269</v>
+        <v>0.1799427705348549</v>
       </c>
       <c r="D85">
-        <v>-0.05797017337402774</v>
+        <v>0.1045622779091077</v>
       </c>
       <c r="E85">
-        <v>-0.03366077249387442</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.002731809046825713</v>
+      </c>
+      <c r="F85">
+        <v>0.06536069610114455</v>
+      </c>
+      <c r="G85">
+        <v>-0.02738277443755356</v>
+      </c>
+      <c r="H85">
+        <v>-0.0004772452871807067</v>
+      </c>
+      <c r="I85">
+        <v>0.008158208450054253</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.01858922203352981</v>
+        <v>-0.01455205411529389</v>
       </c>
       <c r="C86">
-        <v>0.01217145888974021</v>
+        <v>0.04099136561817444</v>
       </c>
       <c r="D86">
-        <v>0.08455012668430904</v>
+        <v>-0.1093746679621554</v>
       </c>
       <c r="E86">
-        <v>-0.02689871958696788</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>0.01715406487423256</v>
+      </c>
+      <c r="F86">
+        <v>0.01603697130308264</v>
+      </c>
+      <c r="G86">
+        <v>0.01749178393744804</v>
+      </c>
+      <c r="H86">
+        <v>-0.01122011813675703</v>
+      </c>
+      <c r="I86">
+        <v>0.02921829439456136</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.02163416834544478</v>
+        <v>-0.01177111697548089</v>
       </c>
       <c r="C87">
-        <v>0.02929040031180954</v>
+        <v>0.06421880496242602</v>
       </c>
       <c r="D87">
-        <v>0.1151215604408003</v>
+        <v>-0.1325204079133953</v>
       </c>
       <c r="E87">
-        <v>-0.06052926456337553</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.019661709206311</v>
+      </c>
+      <c r="F87">
+        <v>0.04214013013155363</v>
+      </c>
+      <c r="G87">
+        <v>-0.02179554693766877</v>
+      </c>
+      <c r="H87">
+        <v>0.08669574485545507</v>
+      </c>
+      <c r="I87">
+        <v>-0.0009390223985764613</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.05132902469447891</v>
+        <v>-0.03242339806161781</v>
       </c>
       <c r="C88">
-        <v>0.0451630050843792</v>
+        <v>0.06965379098713732</v>
       </c>
       <c r="D88">
-        <v>0.01298108545121505</v>
+        <v>-0.01477880774740707</v>
       </c>
       <c r="E88">
-        <v>-0.02777866439829649</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>-0.02520264042238853</v>
+      </c>
+      <c r="F88">
+        <v>0.02054357678116416</v>
+      </c>
+      <c r="G88">
+        <v>0.02072398790351465</v>
+      </c>
+      <c r="H88">
+        <v>0.007147227352658609</v>
+      </c>
+      <c r="I88">
+        <v>0.0269184137071841</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.3273076505531444</v>
+        <v>-0.4068329542604521</v>
       </c>
       <c r="C89">
-        <v>-0.315969113812656</v>
+        <v>-0.1529532274245742</v>
       </c>
       <c r="D89">
-        <v>0.0004510180474957887</v>
+        <v>-0.03792639727441503</v>
       </c>
       <c r="E89">
-        <v>-0.08088360501524008</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.04583532306639361</v>
+      </c>
+      <c r="F89">
+        <v>0.05964735376294485</v>
+      </c>
+      <c r="G89">
+        <v>0.04179381666455909</v>
+      </c>
+      <c r="H89">
+        <v>0.1473370314405029</v>
+      </c>
+      <c r="I89">
+        <v>-0.06370035844273955</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.2640201717310055</v>
+        <v>-0.3204277127609267</v>
       </c>
       <c r="C90">
-        <v>-0.2328999577090691</v>
+        <v>-0.1033796022037136</v>
       </c>
       <c r="D90">
-        <v>0.05305611429260675</v>
+        <v>-0.03132664014010976</v>
       </c>
       <c r="E90">
-        <v>0.008172359229460364</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.006946570900651356</v>
+      </c>
+      <c r="F90">
+        <v>-0.008804953802041998</v>
+      </c>
+      <c r="G90">
+        <v>-0.06032115593693779</v>
+      </c>
+      <c r="H90">
+        <v>0.03652766622012814</v>
+      </c>
+      <c r="I90">
+        <v>-0.0140343055582545</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.1490238024384769</v>
+        <v>-0.06513971106999394</v>
       </c>
       <c r="C91">
-        <v>0.1897751497901488</v>
+        <v>0.2052037781232137</v>
       </c>
       <c r="D91">
-        <v>-0.1111038213408423</v>
+        <v>0.1124322240992846</v>
       </c>
       <c r="E91">
-        <v>-0.03644520950247967</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.06492755612151369</v>
+      </c>
+      <c r="F91">
+        <v>0.05604367760079622</v>
+      </c>
+      <c r="G91">
+        <v>-0.01089170910268783</v>
+      </c>
+      <c r="H91">
+        <v>-0.002570879066856667</v>
+      </c>
+      <c r="I91">
+        <v>-0.02866871784202858</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.2464861914279523</v>
+        <v>-0.3391903785126581</v>
       </c>
       <c r="C92">
-        <v>-0.2584012593624085</v>
+        <v>-0.1398906819179045</v>
       </c>
       <c r="D92">
-        <v>-0.06194422214559275</v>
+        <v>-0.01610151960139052</v>
       </c>
       <c r="E92">
-        <v>-0.01304685181019582</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0663345540276439</v>
+      </c>
+      <c r="F92">
+        <v>0.04234393295249381</v>
+      </c>
+      <c r="G92">
+        <v>-0.0204639369907874</v>
+      </c>
+      <c r="H92">
+        <v>0.02525694501987557</v>
+      </c>
+      <c r="I92">
+        <v>0.1357658379477591</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.2879961995581863</v>
+        <v>-0.3352195451910414</v>
       </c>
       <c r="C93">
-        <v>-0.2417746522338606</v>
+        <v>-0.1104595281613319</v>
       </c>
       <c r="D93">
-        <v>0.005975059417760784</v>
+        <v>0.01749090976001154</v>
       </c>
       <c r="E93">
-        <v>-0.01936829402106853</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>-0.02271311969415375</v>
+      </c>
+      <c r="F93">
+        <v>0.01255846908168439</v>
+      </c>
+      <c r="G93">
+        <v>0.004380161821885158</v>
+      </c>
+      <c r="H93">
+        <v>-0.03498625580195774</v>
+      </c>
+      <c r="I93">
+        <v>0.02957474211940155</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2801300214978441</v>
+        <v>-0.1198629372804194</v>
       </c>
       <c r="C94">
-        <v>0.2737094616898195</v>
+        <v>0.3392430511144462</v>
       </c>
       <c r="D94">
-        <v>-0.2476122483874376</v>
+        <v>0.3573280195790973</v>
       </c>
       <c r="E94">
-        <v>0.282751452942115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.06727723494474352</v>
+      </c>
+      <c r="F94">
+        <v>-0.1370207723705121</v>
+      </c>
+      <c r="G94">
+        <v>-0.298009359703036</v>
+      </c>
+      <c r="H94">
+        <v>0.1112224495283759</v>
+      </c>
+      <c r="I94">
+        <v>0.02746826541602079</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.009794501737248135</v>
+        <v>-0.01319179816353188</v>
       </c>
       <c r="C95">
-        <v>0.0418541696786788</v>
+        <v>0.06637729789552591</v>
       </c>
       <c r="D95">
-        <v>-0.02197467752816137</v>
+        <v>-0.09763617741231249</v>
       </c>
       <c r="E95">
-        <v>0.02597551591057898</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>0.1467129376224936</v>
+      </c>
+      <c r="F95">
+        <v>-0.03540313244852142</v>
+      </c>
+      <c r="G95">
+        <v>0.2148988664442381</v>
+      </c>
+      <c r="H95">
+        <v>0.2194900390505312</v>
+      </c>
+      <c r="I95">
+        <v>0.1718679486982425</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,44 +3478,80 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B97">
-        <v>0</v>
+        <v>-0.001709074835327232</v>
       </c>
       <c r="C97">
-        <v>0</v>
+        <v>0.001061442241226891</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>-0.0007038852465432507</v>
       </c>
       <c r="E97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:5">
+        <v>-0.003700054412374581</v>
+      </c>
+      <c r="F97">
+        <v>0.0003917255608983831</v>
+      </c>
+      <c r="G97">
+        <v>8.246609663847856e-05</v>
+      </c>
+      <c r="H97">
+        <v>0.002903209589012796</v>
+      </c>
+      <c r="I97">
+        <v>0.006422726989533146</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.1492966070008684</v>
+        <v>-0.1241387866422986</v>
       </c>
       <c r="C98">
-        <v>0.08999701753451347</v>
+        <v>0.1551217924575843</v>
       </c>
       <c r="D98">
-        <v>0.1967332501700615</v>
+        <v>-0.0621887232665847</v>
       </c>
       <c r="E98">
-        <v>0.06646118705707343</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.188644112517392</v>
+      </c>
+      <c r="F98">
+        <v>-0.2241641454880663</v>
+      </c>
+      <c r="G98">
+        <v>0.1894302018057526</v>
+      </c>
+      <c r="H98">
+        <v>-0.2928966128058026</v>
+      </c>
+      <c r="I98">
+        <v>-0.1123095131882606</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +3565,22 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,44 +3594,80 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.002347066987221784</v>
+        <v>-0.001680120131334429</v>
       </c>
       <c r="C101">
-        <v>0.02290693008434904</v>
+        <v>0.03953867287679553</v>
       </c>
       <c r="D101">
-        <v>0.07450225941366474</v>
+        <v>-0.09028745518642255</v>
       </c>
       <c r="E101">
-        <v>-0.03613364346480335</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>-0.06597772126947886</v>
+      </c>
+      <c r="F101">
+        <v>0.02782176993402672</v>
+      </c>
+      <c r="G101">
+        <v>0.0945999041635226</v>
+      </c>
+      <c r="H101">
+        <v>0.1477194454392664</v>
+      </c>
+      <c r="I101">
+        <v>0.01448365498090563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1025851087593747</v>
+        <v>-0.02629328818094917</v>
       </c>
       <c r="C102">
-        <v>0.1604337444334278</v>
+        <v>0.1456769983957467</v>
       </c>
       <c r="D102">
-        <v>-0.05219074581236008</v>
+        <v>0.1060944988278172</v>
       </c>
       <c r="E102">
-        <v>0.1061263024200198</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.04293058042559733</v>
+      </c>
+      <c r="F102">
+        <v>-0.08313171670059541</v>
+      </c>
+      <c r="G102">
+        <v>0.01719873728650259</v>
+      </c>
+      <c r="H102">
+        <v>0.02881800424834741</v>
+      </c>
+      <c r="I102">
+        <v>-0.01316447786833544</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2445,10 +3681,22 @@
       <c r="E103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2460,6 +3708,18 @@
         <v>0</v>
       </c>
       <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
